--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhava\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhava\Desktop\Columbia University\Module 1\Kickstarter-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40FD3F3-8935-4B1A-9597-1BC4CEDA77E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07BC32-C140-4BA5-9E28-20361F4F5C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{4AE2B793-172F-4C85-BBF8-C895B614F26E}"/>
+    <workbookView xWindow="1545" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{4AE2B793-172F-4C85-BBF8-C895B614F26E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Blabla</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,12 +392,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C47EDDC-B6C0-425D-9C02-97EA65D36C1F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>